--- a/GUI + Reviews/202509/North America 500.xlsx
+++ b/GUI + Reviews/202509/North America 500.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202509\20250908\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202509\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8D6C83A-E3DB-4740-B77C-518C1EFAFD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85F5D01-C496-4939-9541-F138407EEB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="90" windowWidth="29040" windowHeight="17640" xr2:uid="{747F41A8-D04A-4F86-ADE1-BB3E5BE72EF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{747F41A8-D04A-4F86-ADE1-BB3E5BE72EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="1521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="1519">
   <si>
     <t>Rank</t>
   </si>
@@ -368,18 +368,9 @@
     <t>AMRIZE</t>
   </si>
   <si>
-    <t>AMRZ-CH</t>
-  </si>
-  <si>
     <t>CH1430134226</t>
   </si>
   <si>
-    <t>CHF</t>
-  </si>
-  <si>
-    <t>SIX SWISS</t>
-  </si>
-  <si>
     <t>ANALOG DEVICES INC</t>
   </si>
   <si>
@@ -4599,6 +4590,9 @@
   </si>
   <si>
     <t>US98980G1022</t>
+  </si>
+  <si>
+    <t>AMRZ-US</t>
   </si>
 </sst>
 </file>
@@ -4917,23 +4911,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A088309C-DACC-40A0-A19D-6523F7049722}" name="Universe" displayName="Universe" ref="A1:N501" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A088309C-DACC-40A0-A19D-6523F7049722}" name="Universe" displayName="Universe" ref="A1:N501" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:N501" xr:uid="{A088309C-DACC-40A0-A19D-6523F7049722}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{C53AD3C0-EA01-418B-821D-504DB3F3E120}" name="Rank" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{B9898128-65DB-4B38-B012-88556D7C7023}" name="Name" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{78B59F46-B2C8-40EA-9804-045EE74A6751}" name="Ticker" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{474F2B02-4DD3-467F-AFC1-9AF86FC2291D}" name="ISIN" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{03885BCB-3510-4AF4-9F05-0C2715B440BD}" name="Currency (Local)" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{518582DB-5B2D-49E3-88C5-6EC0DFADAD03}" name="Price (EUR) " dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{7234D122-070E-4D03-9E8B-A08CBBCDE542}" name="NOSH" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{81354A6C-9602-43E0-AFDF-F9E537855485}" name="Exchange Name (VND)" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{4BBA157D-B6A4-4730-9FE4-173B348234AF}" name="Sec Market Value (EUR)" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{F63FB327-5497-4825-998A-5DBD106C7BBE}" name="20 days aver. turn EUR" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{CBB16C34-B4D1-4FF2-A23C-43DA8D6AD41B}" name="6 month aver. turnover EUR" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{2A59CC7B-FD7B-4419-BD15-A4121687E044}" name="3 month average turnover EUR" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{6C50B006-A995-44C3-BCE3-B4736D759FFE}" name="3 months aver. Turnover USD" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{CA0CF2FD-78CB-413E-8C8D-CFDD601A5BDD}" name="12 month aver. turnover EUR" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C53AD3C0-EA01-418B-821D-504DB3F3E120}" name="Rank" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{B9898128-65DB-4B38-B012-88556D7C7023}" name="Name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{78B59F46-B2C8-40EA-9804-045EE74A6751}" name="Ticker" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{474F2B02-4DD3-467F-AFC1-9AF86FC2291D}" name="ISIN" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{03885BCB-3510-4AF4-9F05-0C2715B440BD}" name="Currency (Local)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{518582DB-5B2D-49E3-88C5-6EC0DFADAD03}" name="Price (EUR) " dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{7234D122-070E-4D03-9E8B-A08CBBCDE542}" name="NOSH" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{81354A6C-9602-43E0-AFDF-F9E537855485}" name="Exchange Name (VND)" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{4BBA157D-B6A4-4730-9FE4-173B348234AF}" name="Sec Market Value (EUR)" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{F63FB327-5497-4825-998A-5DBD106C7BBE}" name="20 days aver. turn EUR" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{CBB16C34-B4D1-4FF2-A23C-43DA8D6AD41B}" name="6 month aver. turnover EUR" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{2A59CC7B-FD7B-4419-BD15-A4121687E044}" name="3 month average turnover EUR" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{6C50B006-A995-44C3-BCE3-B4736D759FFE}" name="3 months aver. Turnover USD" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{CA0CF2FD-78CB-413E-8C8D-CFDD601A5BDD}" name="12 month aver. turnover EUR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5258,7 +5252,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222C010A-8EB3-49D7-9CA6-E1D0E0A064FE}">
   <dimension ref="A1:N501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6649,40 +6645,40 @@
         <v>109</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="F32" s="1">
-        <v>43.545099999999998</v>
+        <v>43.727600000000002</v>
       </c>
       <c r="G32" s="1">
         <v>552735960</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I32" s="1">
-        <v>24068.94</v>
+        <v>24169.82</v>
       </c>
       <c r="J32" s="1">
-        <v>86393870.962381005</v>
+        <v>124210257.144804</v>
       </c>
       <c r="K32" s="1">
-        <v>115139259.79320601</v>
+        <v>140787128.181503</v>
       </c>
       <c r="L32" s="1">
-        <v>115139259.79320601</v>
+        <v>140787128.181503</v>
       </c>
       <c r="M32" s="1">
-        <v>134109157.14305399</v>
+        <v>163967156.77500701</v>
       </c>
       <c r="N32" s="1">
-        <v>115139259.79320601</v>
+        <v>140787128.181503</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -6690,13 +6686,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>17</v>
@@ -6734,13 +6730,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>17</v>
@@ -6778,13 +6774,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>17</v>
@@ -6822,13 +6818,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>17</v>
@@ -6866,13 +6862,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>17</v>
@@ -6910,13 +6906,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>17</v>
@@ -6954,13 +6950,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>17</v>
@@ -6998,13 +6994,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>17</v>
@@ -7042,13 +7038,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>17</v>
@@ -7086,13 +7082,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>17</v>
@@ -7130,13 +7126,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>17</v>
@@ -7174,13 +7170,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>17</v>
@@ -7218,13 +7214,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>17</v>
@@ -7262,13 +7258,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>17</v>
@@ -7306,13 +7302,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>17</v>
@@ -7350,13 +7346,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>17</v>
@@ -7394,13 +7390,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>17</v>
@@ -7438,13 +7434,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>17</v>
@@ -7482,13 +7478,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>17</v>
@@ -7526,13 +7522,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>17</v>
@@ -7570,13 +7566,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>17</v>
@@ -7614,13 +7610,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>17</v>
@@ -7658,13 +7654,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>17</v>
@@ -7702,13 +7698,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>17</v>
@@ -7746,13 +7742,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>50</v>
@@ -7790,13 +7786,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>50</v>
@@ -7834,13 +7830,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>50</v>
@@ -7878,13 +7874,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>50</v>
@@ -7922,13 +7918,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>17</v>
@@ -7966,13 +7962,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>17</v>
@@ -8010,13 +8006,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>17</v>
@@ -8054,13 +8050,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>17</v>
@@ -8098,13 +8094,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>17</v>
@@ -8142,13 +8138,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>17</v>
@@ -8186,13 +8182,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>17</v>
@@ -8230,13 +8226,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>17</v>
@@ -8274,13 +8270,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>17</v>
@@ -8318,13 +8314,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>17</v>
@@ -8362,13 +8358,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>17</v>
@@ -8406,13 +8402,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>17</v>
@@ -8450,13 +8446,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>50</v>
@@ -8494,13 +8490,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>50</v>
@@ -8538,13 +8534,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>17</v>
@@ -8582,13 +8578,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>17</v>
@@ -8626,13 +8622,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>17</v>
@@ -8670,13 +8666,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>50</v>
@@ -8714,13 +8710,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>50</v>
@@ -8758,13 +8754,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>50</v>
@@ -8802,13 +8798,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>50</v>
@@ -8846,13 +8842,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>17</v>
@@ -8890,13 +8886,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>17</v>
@@ -8934,13 +8930,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>17</v>
@@ -8978,13 +8974,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>17</v>
@@ -9022,13 +9018,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>17</v>
@@ -9066,13 +9062,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>17</v>
@@ -9110,13 +9106,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>17</v>
@@ -9154,13 +9150,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>17</v>
@@ -9198,13 +9194,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>17</v>
@@ -9242,13 +9238,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>50</v>
@@ -9286,13 +9282,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>17</v>
@@ -9330,13 +9326,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>50</v>
@@ -9374,13 +9370,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>17</v>
@@ -9418,13 +9414,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>50</v>
@@ -9462,13 +9458,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>17</v>
@@ -9506,13 +9502,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>17</v>
@@ -9550,13 +9546,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>17</v>
@@ -9594,13 +9590,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>17</v>
@@ -9638,13 +9634,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>17</v>
@@ -9682,13 +9678,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>17</v>
@@ -9726,13 +9722,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>17</v>
@@ -9770,13 +9766,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>50</v>
@@ -9814,13 +9810,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>17</v>
@@ -9858,13 +9854,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>17</v>
@@ -9902,13 +9898,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>17</v>
@@ -9946,13 +9942,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>17</v>
@@ -9990,13 +9986,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>17</v>
@@ -10034,13 +10030,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>17</v>
@@ -10078,13 +10074,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>17</v>
@@ -10122,13 +10118,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>17</v>
@@ -10166,13 +10162,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>17</v>
@@ -10210,13 +10206,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>17</v>
@@ -10254,13 +10250,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>17</v>
@@ -10298,13 +10294,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>17</v>
@@ -10342,13 +10338,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>17</v>
@@ -10386,13 +10382,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>17</v>
@@ -10430,13 +10426,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>17</v>
@@ -10474,13 +10470,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>17</v>
@@ -10518,13 +10514,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>17</v>
@@ -10562,13 +10558,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>17</v>
@@ -10606,13 +10602,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>17</v>
@@ -10650,13 +10646,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>17</v>
@@ -10694,13 +10690,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>17</v>
@@ -10738,13 +10734,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>50</v>
@@ -10782,13 +10778,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>17</v>
@@ -10826,13 +10822,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>17</v>
@@ -10870,13 +10866,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>17</v>
@@ -10914,13 +10910,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>17</v>
@@ -10958,13 +10954,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>17</v>
@@ -11002,13 +10998,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>17</v>
@@ -11046,13 +11042,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>17</v>
@@ -11090,13 +11086,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>17</v>
@@ -11134,13 +11130,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>17</v>
@@ -11178,13 +11174,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>17</v>
@@ -11222,13 +11218,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>17</v>
@@ -11266,13 +11262,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>17</v>
@@ -11310,13 +11306,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>17</v>
@@ -11354,13 +11350,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>17</v>
@@ -11398,13 +11394,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>17</v>
@@ -11442,13 +11438,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>17</v>
@@ -11486,13 +11482,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>17</v>
@@ -11530,13 +11526,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>17</v>
@@ -11574,13 +11570,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>17</v>
@@ -11618,13 +11614,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>17</v>
@@ -11662,13 +11658,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>17</v>
@@ -11706,13 +11702,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>17</v>
@@ -11750,13 +11746,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>17</v>
@@ -11794,13 +11790,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>17</v>
@@ -11838,13 +11834,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>17</v>
@@ -11882,13 +11878,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>17</v>
@@ -11926,13 +11922,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>17</v>
@@ -11970,13 +11966,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>17</v>
@@ -12014,13 +12010,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>17</v>
@@ -12058,13 +12054,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>17</v>
@@ -12102,13 +12098,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>17</v>
@@ -12146,13 +12142,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>50</v>
@@ -12190,13 +12186,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>17</v>
@@ -12234,13 +12230,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>17</v>
@@ -12278,13 +12274,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>17</v>
@@ -12322,13 +12318,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>17</v>
@@ -12366,13 +12362,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>17</v>
@@ -12410,13 +12406,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>17</v>
@@ -12454,13 +12450,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>17</v>
@@ -12498,13 +12494,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>17</v>
@@ -12542,13 +12538,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>17</v>
@@ -12586,13 +12582,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>17</v>
@@ -12630,13 +12626,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>17</v>
@@ -12674,13 +12670,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>17</v>
@@ -12718,13 +12714,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>17</v>
@@ -12762,13 +12758,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>17</v>
@@ -12806,13 +12802,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>17</v>
@@ -12850,13 +12846,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>17</v>
@@ -12894,13 +12890,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>17</v>
@@ -12938,13 +12934,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>17</v>
@@ -12982,13 +12978,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>50</v>
@@ -13026,13 +13022,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>17</v>
@@ -13070,13 +13066,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>17</v>
@@ -13114,13 +13110,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>17</v>
@@ -13158,13 +13154,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>17</v>
@@ -13202,13 +13198,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>17</v>
@@ -13246,13 +13242,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>17</v>
@@ -13290,13 +13286,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>17</v>
@@ -13334,13 +13330,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>17</v>
@@ -13378,13 +13374,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>17</v>
@@ -13422,13 +13418,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>17</v>
@@ -13466,13 +13462,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>17</v>
@@ -13510,13 +13506,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>17</v>
@@ -13554,13 +13550,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>17</v>
@@ -13598,13 +13594,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>17</v>
@@ -13642,13 +13638,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>17</v>
@@ -13686,13 +13682,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>17</v>
@@ -13730,13 +13726,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>17</v>
@@ -13774,13 +13770,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>50</v>
@@ -13818,13 +13814,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>17</v>
@@ -13862,13 +13858,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>17</v>
@@ -13906,13 +13902,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>17</v>
@@ -13950,13 +13946,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>17</v>
@@ -13994,13 +13990,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>17</v>
@@ -14038,13 +14034,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>17</v>
@@ -14082,13 +14078,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>17</v>
@@ -14126,13 +14122,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>17</v>
@@ -14170,13 +14166,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>17</v>
@@ -14214,13 +14210,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>17</v>
@@ -14258,13 +14254,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>17</v>
@@ -14302,13 +14298,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>17</v>
@@ -14346,13 +14342,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>17</v>
@@ -14390,13 +14386,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>50</v>
@@ -14434,13 +14430,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>50</v>
@@ -14478,13 +14474,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>17</v>
@@ -14522,13 +14518,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>17</v>
@@ -14566,13 +14562,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>17</v>
@@ -14610,13 +14606,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>17</v>
@@ -14654,13 +14650,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>17</v>
@@ -14698,13 +14694,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>17</v>
@@ -14742,13 +14738,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>17</v>
@@ -14786,13 +14782,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>17</v>
@@ -14830,13 +14826,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>17</v>
@@ -14874,13 +14870,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>17</v>
@@ -14918,13 +14914,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>17</v>
@@ -14962,13 +14958,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>17</v>
@@ -15006,13 +15002,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>17</v>
@@ -15050,13 +15046,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>17</v>
@@ -15094,13 +15090,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>17</v>
@@ -15138,13 +15134,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>17</v>
@@ -15182,13 +15178,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>17</v>
@@ -15226,13 +15222,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>17</v>
@@ -15270,13 +15266,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>17</v>
@@ -15314,13 +15310,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>17</v>
@@ -15358,13 +15354,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>17</v>
@@ -15402,13 +15398,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>17</v>
@@ -15446,13 +15442,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>17</v>
@@ -15490,13 +15486,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>17</v>
@@ -15534,13 +15530,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>17</v>
@@ -15578,13 +15574,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>17</v>
@@ -15622,13 +15618,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>17</v>
@@ -15666,13 +15662,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>17</v>
@@ -15710,13 +15706,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>17</v>
@@ -15754,13 +15750,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>17</v>
@@ -15798,13 +15794,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>17</v>
@@ -15842,13 +15838,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>17</v>
@@ -15886,13 +15882,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>17</v>
@@ -15930,13 +15926,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>17</v>
@@ -15974,13 +15970,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>17</v>
@@ -16018,13 +16014,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>17</v>
@@ -16062,13 +16058,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>50</v>
@@ -16106,13 +16102,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>17</v>
@@ -16150,13 +16146,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>17</v>
@@ -16194,13 +16190,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>17</v>
@@ -16238,13 +16234,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>17</v>
@@ -16282,13 +16278,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>17</v>
@@ -16326,13 +16322,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>17</v>
@@ -16370,13 +16366,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>17</v>
@@ -16414,13 +16410,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>17</v>
@@ -16458,13 +16454,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>17</v>
@@ -16502,13 +16498,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>17</v>
@@ -16546,13 +16542,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>17</v>
@@ -16590,13 +16586,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>17</v>
@@ -16634,13 +16630,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>17</v>
@@ -16678,13 +16674,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>17</v>
@@ -16722,13 +16718,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>17</v>
@@ -16766,13 +16762,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>17</v>
@@ -16810,13 +16806,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>17</v>
@@ -16854,13 +16850,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>17</v>
@@ -16898,13 +16894,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>17</v>
@@ -16942,13 +16938,13 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>17</v>
@@ -16986,13 +16982,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>50</v>
@@ -17030,13 +17026,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>17</v>
@@ -17074,13 +17070,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>17</v>
@@ -17118,13 +17114,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>17</v>
@@ -17162,13 +17158,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>17</v>
@@ -17206,13 +17202,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>17</v>
@@ -17250,13 +17246,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>17</v>
@@ -17294,13 +17290,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>17</v>
@@ -17338,13 +17334,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>17</v>
@@ -17382,13 +17378,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>17</v>
@@ -17426,13 +17422,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>17</v>
@@ -17470,13 +17466,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>17</v>
@@ -17514,13 +17510,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>17</v>
@@ -17558,13 +17554,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>17</v>
@@ -17602,13 +17598,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>50</v>
@@ -17646,13 +17642,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>17</v>
@@ -17690,13 +17686,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>17</v>
@@ -17734,13 +17730,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>17</v>
@@ -17778,13 +17774,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>17</v>
@@ -17822,13 +17818,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>17</v>
@@ -17866,13 +17862,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>50</v>
@@ -17910,13 +17906,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>17</v>
@@ -17954,13 +17950,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>17</v>
@@ -17998,13 +17994,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>17</v>
@@ -18042,13 +18038,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>17</v>
@@ -18086,13 +18082,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>17</v>
@@ -18130,13 +18126,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>17</v>
@@ -18174,13 +18170,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>17</v>
@@ -18218,13 +18214,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>17</v>
@@ -18262,13 +18258,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>17</v>
@@ -18306,13 +18302,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>17</v>
@@ -18350,13 +18346,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>17</v>
@@ -18394,13 +18390,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>17</v>
@@ -18438,13 +18434,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>17</v>
@@ -18482,13 +18478,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>17</v>
@@ -18526,13 +18522,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>17</v>
@@ -18570,13 +18566,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>17</v>
@@ -18614,13 +18610,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>17</v>
@@ -18658,13 +18654,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>17</v>
@@ -18702,13 +18698,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>17</v>
@@ -18746,13 +18742,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>17</v>
@@ -18790,13 +18786,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>17</v>
@@ -18834,13 +18830,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>17</v>
@@ -18878,13 +18874,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>17</v>
@@ -18922,13 +18918,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>17</v>
@@ -18966,13 +18962,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>17</v>
@@ -19010,13 +19006,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>17</v>
@@ -19054,13 +19050,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>17</v>
@@ -19098,13 +19094,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>17</v>
@@ -19142,13 +19138,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>17</v>
@@ -19186,13 +19182,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>50</v>
@@ -19230,13 +19226,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>17</v>
@@ -19274,13 +19270,13 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>17</v>
@@ -19318,13 +19314,13 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>17</v>
@@ -19362,13 +19358,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>17</v>
@@ -19406,13 +19402,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>17</v>
@@ -19450,13 +19446,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>17</v>
@@ -19494,13 +19490,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>17</v>
@@ -19538,13 +19534,13 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>17</v>
@@ -19582,13 +19578,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>17</v>
@@ -19626,13 +19622,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>17</v>
@@ -19670,13 +19666,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>17</v>
@@ -19714,13 +19710,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>17</v>
@@ -19758,13 +19754,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>17</v>
@@ -19802,13 +19798,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>17</v>
@@ -19846,13 +19842,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>50</v>
@@ -19890,13 +19886,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>17</v>
@@ -19934,13 +19930,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>17</v>
@@ -19978,13 +19974,13 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>17</v>
@@ -20022,13 +20018,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>17</v>
@@ -20066,13 +20062,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>17</v>
@@ -20110,13 +20106,13 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>17</v>
@@ -20154,13 +20150,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>17</v>
@@ -20198,13 +20194,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>17</v>
@@ -20242,13 +20238,13 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>17</v>
@@ -20286,13 +20282,13 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>17</v>
@@ -20330,13 +20326,13 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>17</v>
@@ -20374,13 +20370,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>17</v>
@@ -20418,13 +20414,13 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>17</v>
@@ -20462,13 +20458,13 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>17</v>
@@ -20506,13 +20502,13 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>17</v>
@@ -20550,13 +20546,13 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>17</v>
@@ -20594,13 +20590,13 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>17</v>
@@ -20638,13 +20634,13 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>50</v>
@@ -20682,13 +20678,13 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>17</v>
@@ -20726,13 +20722,13 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>17</v>
@@ -20770,13 +20766,13 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>17</v>
@@ -20814,13 +20810,13 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>17</v>
@@ -20858,13 +20854,13 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>17</v>
@@ -20902,13 +20898,13 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>17</v>
@@ -20946,13 +20942,13 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>17</v>
@@ -20990,13 +20986,13 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>17</v>
@@ -21034,13 +21030,13 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>50</v>
@@ -21078,13 +21074,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>17</v>
@@ -21122,13 +21118,13 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>17</v>
@@ -21166,13 +21162,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>17</v>
@@ -21210,13 +21206,13 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>17</v>
@@ -21254,13 +21250,13 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>17</v>
@@ -21298,13 +21294,13 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>17</v>
@@ -21342,13 +21338,13 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>17</v>
@@ -21386,13 +21382,13 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>17</v>
@@ -21430,13 +21426,13 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>17</v>
@@ -21474,13 +21470,13 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>17</v>
@@ -21518,13 +21514,13 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>17</v>
@@ -21562,13 +21558,13 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>17</v>
@@ -21606,13 +21602,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>17</v>
@@ -21650,13 +21646,13 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>17</v>
@@ -21694,13 +21690,13 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>17</v>
@@ -21738,13 +21734,13 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>17</v>
@@ -21782,13 +21778,13 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>50</v>
@@ -21826,13 +21822,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>17</v>
@@ -21870,13 +21866,13 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>17</v>
@@ -21914,13 +21910,13 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>17</v>
@@ -21958,13 +21954,13 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>17</v>
@@ -22002,13 +21998,13 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>17</v>
@@ -22046,13 +22042,13 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>17</v>
@@ -22090,13 +22086,13 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>50</v>
@@ -22134,13 +22130,13 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>17</v>
@@ -22178,13 +22174,13 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>17</v>
@@ -22222,13 +22218,13 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>17</v>
@@ -22266,13 +22262,13 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>17</v>
@@ -22310,13 +22306,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>17</v>
@@ -22354,13 +22350,13 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>17</v>
@@ -22398,13 +22394,13 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>17</v>
@@ -22442,13 +22438,13 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>50</v>
@@ -22486,13 +22482,13 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>17</v>
@@ -22530,13 +22526,13 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>17</v>
@@ -22574,13 +22570,13 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>17</v>
@@ -22618,13 +22614,13 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>17</v>
@@ -22662,13 +22658,13 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>17</v>
@@ -22706,13 +22702,13 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>17</v>
@@ -22750,13 +22746,13 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>17</v>
@@ -22794,13 +22790,13 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>17</v>
@@ -22838,13 +22834,13 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>17</v>
@@ -22882,13 +22878,13 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>17</v>
@@ -22926,13 +22922,13 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>17</v>
@@ -22970,13 +22966,13 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>17</v>
@@ -23014,13 +23010,13 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>17</v>
@@ -23058,13 +23054,13 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>17</v>
@@ -23102,13 +23098,13 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>17</v>
@@ -23146,13 +23142,13 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>17</v>
@@ -23190,13 +23186,13 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>17</v>
@@ -23234,13 +23230,13 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>17</v>
@@ -23278,13 +23274,13 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>17</v>
@@ -23322,13 +23318,13 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>17</v>
@@ -23366,13 +23362,13 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>17</v>
@@ -23410,13 +23406,13 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>17</v>
@@ -23454,13 +23450,13 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>17</v>
@@ -23498,13 +23494,13 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>17</v>
@@ -23542,13 +23538,13 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>17</v>
@@ -23586,13 +23582,13 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>17</v>
@@ -23630,13 +23626,13 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>50</v>
@@ -23674,13 +23670,13 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>50</v>
@@ -23718,13 +23714,13 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>17</v>
@@ -23762,13 +23758,13 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>17</v>
@@ -23806,13 +23802,13 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>17</v>
@@ -23850,13 +23846,13 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>17</v>
@@ -23894,13 +23890,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>17</v>
@@ -23938,13 +23934,13 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>17</v>
@@ -23982,13 +23978,13 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>17</v>
@@ -24026,13 +24022,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>17</v>
@@ -24070,13 +24066,13 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>17</v>
@@ -24114,13 +24110,13 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>50</v>
@@ -24158,13 +24154,13 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>17</v>
@@ -24202,13 +24198,13 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>17</v>
@@ -24246,13 +24242,13 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>50</v>
@@ -24290,13 +24286,13 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>17</v>
@@ -24334,13 +24330,13 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>17</v>
@@ -24378,13 +24374,13 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>17</v>
@@ -24422,13 +24418,13 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>17</v>
@@ -24466,13 +24462,13 @@
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>17</v>
@@ -24510,13 +24506,13 @@
         <v>437</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>17</v>
@@ -24554,13 +24550,13 @@
         <v>438</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>50</v>
@@ -24598,13 +24594,13 @@
         <v>439</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>17</v>
@@ -24642,13 +24638,13 @@
         <v>440</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>17</v>
@@ -24686,13 +24682,13 @@
         <v>441</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>17</v>
@@ -24730,13 +24726,13 @@
         <v>442</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>50</v>
@@ -24774,13 +24770,13 @@
         <v>443</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="E444" s="1" t="s">
         <v>17</v>
@@ -24818,13 +24814,13 @@
         <v>444</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="E445" s="1" t="s">
         <v>17</v>
@@ -24862,13 +24858,13 @@
         <v>445</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="E446" s="1" t="s">
         <v>17</v>
@@ -24906,13 +24902,13 @@
         <v>446</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="E447" s="1" t="s">
         <v>17</v>
@@ -24950,13 +24946,13 @@
         <v>447</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E448" s="1" t="s">
         <v>17</v>
@@ -24994,13 +24990,13 @@
         <v>448</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="E449" s="1" t="s">
         <v>17</v>
@@ -25038,13 +25034,13 @@
         <v>449</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="E450" s="1" t="s">
         <v>17</v>
@@ -25082,13 +25078,13 @@
         <v>450</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E451" s="1" t="s">
         <v>17</v>
@@ -25126,13 +25122,13 @@
         <v>451</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E452" s="1" t="s">
         <v>17</v>
@@ -25170,13 +25166,13 @@
         <v>452</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E453" s="1" t="s">
         <v>17</v>
@@ -25214,13 +25210,13 @@
         <v>453</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="E454" s="1" t="s">
         <v>17</v>
@@ -25258,13 +25254,13 @@
         <v>454</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="E455" s="1" t="s">
         <v>17</v>
@@ -25302,13 +25298,13 @@
         <v>455</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>17</v>
@@ -25346,13 +25342,13 @@
         <v>456</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="E457" s="1" t="s">
         <v>17</v>
@@ -25390,13 +25386,13 @@
         <v>457</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="E458" s="1" t="s">
         <v>17</v>
@@ -25434,13 +25430,13 @@
         <v>458</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="E459" s="1" t="s">
         <v>17</v>
@@ -25478,13 +25474,13 @@
         <v>459</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="E460" s="1" t="s">
         <v>17</v>
@@ -25522,13 +25518,13 @@
         <v>460</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="E461" s="1" t="s">
         <v>17</v>
@@ -25566,13 +25562,13 @@
         <v>461</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="E462" s="1" t="s">
         <v>17</v>
@@ -25610,13 +25606,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="E463" s="1" t="s">
         <v>17</v>
@@ -25654,13 +25650,13 @@
         <v>463</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="E464" s="1" t="s">
         <v>17</v>
@@ -25698,13 +25694,13 @@
         <v>464</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="E465" s="1" t="s">
         <v>17</v>
@@ -25742,13 +25738,13 @@
         <v>465</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>17</v>
@@ -25786,13 +25782,13 @@
         <v>466</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="E467" s="1" t="s">
         <v>17</v>
@@ -25830,13 +25826,13 @@
         <v>467</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="E468" s="1" t="s">
         <v>17</v>
@@ -25874,13 +25870,13 @@
         <v>468</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="E469" s="1" t="s">
         <v>17</v>
@@ -25918,13 +25914,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="E470" s="1" t="s">
         <v>17</v>
@@ -25962,13 +25958,13 @@
         <v>470</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="E471" s="1" t="s">
         <v>17</v>
@@ -26006,13 +26002,13 @@
         <v>471</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="E472" s="1" t="s">
         <v>17</v>
@@ -26050,13 +26046,13 @@
         <v>472</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E473" s="1" t="s">
         <v>17</v>
@@ -26094,13 +26090,13 @@
         <v>473</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="E474" s="1" t="s">
         <v>17</v>
@@ -26138,13 +26134,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="E475" s="1" t="s">
         <v>17</v>
@@ -26182,13 +26178,13 @@
         <v>475</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="E476" s="1" t="s">
         <v>17</v>
@@ -26226,13 +26222,13 @@
         <v>476</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="E477" s="1" t="s">
         <v>17</v>
@@ -26270,13 +26266,13 @@
         <v>477</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="E478" s="1" t="s">
         <v>17</v>
@@ -26314,13 +26310,13 @@
         <v>478</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="E479" s="1" t="s">
         <v>50</v>
@@ -26358,13 +26354,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="E480" s="1" t="s">
         <v>17</v>
@@ -26402,13 +26398,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="E481" s="1" t="s">
         <v>17</v>
@@ -26446,13 +26442,13 @@
         <v>481</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="E482" s="1" t="s">
         <v>17</v>
@@ -26490,13 +26486,13 @@
         <v>482</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="E483" s="1" t="s">
         <v>17</v>
@@ -26534,13 +26530,13 @@
         <v>483</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="E484" s="1" t="s">
         <v>17</v>
@@ -26578,13 +26574,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="E485" s="1" t="s">
         <v>17</v>
@@ -26622,13 +26618,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="E486" s="1" t="s">
         <v>17</v>
@@ -26666,13 +26662,13 @@
         <v>486</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="E487" s="1" t="s">
         <v>17</v>
@@ -26710,13 +26706,13 @@
         <v>487</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="E488" s="1" t="s">
         <v>17</v>
@@ -26754,13 +26750,13 @@
         <v>488</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="E489" s="1" t="s">
         <v>50</v>
@@ -26798,13 +26794,13 @@
         <v>489</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="E490" s="1" t="s">
         <v>17</v>
@@ -26842,13 +26838,13 @@
         <v>490</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="E491" s="1" t="s">
         <v>17</v>
@@ -26886,13 +26882,13 @@
         <v>491</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E492" s="1" t="s">
         <v>17</v>
@@ -26930,13 +26926,13 @@
         <v>492</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E493" s="1" t="s">
         <v>17</v>
@@ -26974,13 +26970,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E494" s="1" t="s">
         <v>50</v>
@@ -27018,13 +27014,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="E495" s="1" t="s">
         <v>17</v>
@@ -27062,13 +27058,13 @@
         <v>495</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="E496" s="1" t="s">
         <v>17</v>
@@ -27106,13 +27102,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="E497" s="1" t="s">
         <v>17</v>
@@ -27150,13 +27146,13 @@
         <v>497</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="E498" s="1" t="s">
         <v>17</v>
@@ -27194,13 +27190,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="E499" s="1" t="s">
         <v>17</v>
@@ -27238,13 +27234,13 @@
         <v>499</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="E500" s="1" t="s">
         <v>17</v>
@@ -27282,13 +27278,13 @@
         <v>500</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="E501" s="1" t="s">
         <v>17</v>

--- a/GUI + Reviews/202509/North America 500.xlsx
+++ b/GUI + Reviews/202509/North America 500.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202509\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202509/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85F5D01-C496-4939-9541-F138407EEB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{F85F5D01-C496-4939-9541-F138407EEB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E870D11-04C6-4B7C-AE2C-87FF8B682AC0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{747F41A8-D04A-4F86-ADE1-BB3E5BE72EF5}"/>
+    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{747F41A8-D04A-4F86-ADE1-BB3E5BE72EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="1519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="1523">
   <si>
     <t>Rank</t>
   </si>
@@ -4593,6 +4593,18 @@
   </si>
   <si>
     <t>AMRZ-US</t>
+  </si>
+  <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>XNYS</t>
+  </si>
+  <si>
+    <t>XNGS</t>
+  </si>
+  <si>
+    <t>XTSE</t>
   </si>
 </sst>
 </file>
@@ -4640,7 +4652,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4910,24 +4938,29 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A088309C-DACC-40A0-A19D-6523F7049722}" name="Universe" displayName="Universe" ref="A1:N501" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N501" xr:uid="{A088309C-DACC-40A0-A19D-6523F7049722}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{C53AD3C0-EA01-418B-821D-504DB3F3E120}" name="Rank" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{B9898128-65DB-4B38-B012-88556D7C7023}" name="Name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{78B59F46-B2C8-40EA-9804-045EE74A6751}" name="Ticker" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{474F2B02-4DD3-467F-AFC1-9AF86FC2291D}" name="ISIN" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{03885BCB-3510-4AF4-9F05-0C2715B440BD}" name="Currency (Local)" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{518582DB-5B2D-49E3-88C5-6EC0DFADAD03}" name="Price (EUR) " dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{7234D122-070E-4D03-9E8B-A08CBBCDE542}" name="NOSH" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{81354A6C-9602-43E0-AFDF-F9E537855485}" name="Exchange Name (VND)" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{4BBA157D-B6A4-4730-9FE4-173B348234AF}" name="Sec Market Value (EUR)" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{F63FB327-5497-4825-998A-5DBD106C7BBE}" name="20 days aver. turn EUR" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{CBB16C34-B4D1-4FF2-A23C-43DA8D6AD41B}" name="6 month aver. turnover EUR" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{2A59CC7B-FD7B-4419-BD15-A4121687E044}" name="3 month average turnover EUR" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{6C50B006-A995-44C3-BCE3-B4736D759FFE}" name="3 months aver. Turnover USD" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{CA0CF2FD-78CB-413E-8C8D-CFDD601A5BDD}" name="12 month aver. turnover EUR" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A088309C-DACC-40A0-A19D-6523F7049722}" name="Universe" displayName="Universe" ref="A1:O501" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:O501" xr:uid="{A088309C-DACC-40A0-A19D-6523F7049722}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{C53AD3C0-EA01-418B-821D-504DB3F3E120}" name="Rank" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{B9898128-65DB-4B38-B012-88556D7C7023}" name="Name" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{78B59F46-B2C8-40EA-9804-045EE74A6751}" name="Ticker" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{474F2B02-4DD3-467F-AFC1-9AF86FC2291D}" name="ISIN" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{03885BCB-3510-4AF4-9F05-0C2715B440BD}" name="Currency (Local)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{518582DB-5B2D-49E3-88C5-6EC0DFADAD03}" name="Price (EUR) " dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{7234D122-070E-4D03-9E8B-A08CBBCDE542}" name="NOSH" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{81354A6C-9602-43E0-AFDF-F9E537855485}" name="Exchange Name (VND)" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{4BBA157D-B6A4-4730-9FE4-173B348234AF}" name="Sec Market Value (EUR)" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{F63FB327-5497-4825-998A-5DBD106C7BBE}" name="20 days aver. turn EUR" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{CBB16C34-B4D1-4FF2-A23C-43DA8D6AD41B}" name="6 month aver. turnover EUR" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{2A59CC7B-FD7B-4419-BD15-A4121687E044}" name="3 month average turnover EUR" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{6C50B006-A995-44C3-BCE3-B4736D759FFE}" name="3 months aver. Turnover USD" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{CA0CF2FD-78CB-413E-8C8D-CFDD601A5BDD}" name="12 month aver. turnover EUR" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{B01AC025-205C-46E8-AB71-EB32464046FA}" name="MIC" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5250,10 +5283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222C010A-8EB3-49D7-9CA6-E1D0E0A064FE}">
-  <dimension ref="A1:N501"/>
+  <dimension ref="A1:O501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5273,7 +5306,7 @@
     <col min="13" max="14" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5316,8 +5349,11 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="1" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5360,8 +5396,11 @@
       <c r="N2" s="1">
         <v>473722842.90872598</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5404,8 +5443,11 @@
       <c r="N3" s="1">
         <v>696176883.20906305</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5448,8 +5490,11 @@
       <c r="N4" s="1">
         <v>1084996558.1536701</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5492,8 +5537,11 @@
       <c r="N5" s="1">
         <v>915281704.85023499</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5536,8 +5584,11 @@
       <c r="N6" s="1">
         <v>1422917295.0629301</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5580,8 +5631,11 @@
       <c r="N7" s="1">
         <v>5138512587.0727596</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5624,8 +5678,11 @@
       <c r="N8" s="1">
         <v>123250957.990789</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5668,8 +5725,11 @@
       <c r="N9" s="1">
         <v>408088960.52596903</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5712,8 +5772,11 @@
       <c r="N10" s="1">
         <v>209514128.77802801</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5756,8 +5819,11 @@
       <c r="N11" s="1">
         <v>210687609.89215499</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5800,8 +5866,11 @@
       <c r="N12" s="1">
         <v>91709142.566249698</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5844,8 +5913,11 @@
       <c r="N13" s="1">
         <v>358300897.94405699</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5888,8 +5960,11 @@
       <c r="N14" s="1">
         <v>590843155.45066798</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5932,8 +6007,11 @@
       <c r="N15" s="1">
         <v>69536809.377842098</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5976,8 +6054,11 @@
       <c r="N16" s="1">
         <v>291949163.05703902</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6020,8 +6101,11 @@
       <c r="N17" s="1">
         <v>234008875.709656</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6064,8 +6148,11 @@
       <c r="N18" s="1">
         <v>5169967672.5729103</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6108,8 +6195,11 @@
       <c r="N19" s="1">
         <v>444493543.639126</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6152,8 +6242,11 @@
       <c r="N20" s="1">
         <v>7824617314.4031696</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6196,8 +6289,11 @@
       <c r="N21" s="1">
         <v>196596975.51954401</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6240,8 +6336,11 @@
       <c r="N22" s="1">
         <v>137993484.63755101</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6284,8 +6383,11 @@
       <c r="N23" s="1">
         <v>305282379.61201203</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6328,8 +6430,11 @@
       <c r="N24" s="1">
         <v>727323593.68563402</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6372,8 +6477,11 @@
       <c r="N25" s="1">
         <v>310629686.43501103</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6416,8 +6524,11 @@
       <c r="N26" s="1">
         <v>476978539.943196</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6460,8 +6571,11 @@
       <c r="N27" s="1">
         <v>165403374.65572399</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6504,8 +6618,11 @@
       <c r="N28" s="1">
         <v>225423644.332627</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6548,8 +6665,11 @@
       <c r="N29" s="1">
         <v>210015554.793562</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6592,8 +6712,11 @@
       <c r="N30" s="1">
         <v>762371889.16311002</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -6636,8 +6759,11 @@
       <c r="N31" s="1">
         <v>543446089.02059805</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -6680,8 +6806,11 @@
       <c r="N32" s="1">
         <v>140787128.181503</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -6724,8 +6853,11 @@
       <c r="N33" s="1">
         <v>711411076.79616702</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6768,8 +6900,11 @@
       <c r="N34" s="1">
         <v>97503699.034223706</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6812,8 +6947,11 @@
       <c r="N35" s="1">
         <v>397231046.27838302</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6856,8 +6994,11 @@
       <c r="N36" s="1">
         <v>535426974.50788599</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6900,8 +7041,11 @@
       <c r="N37" s="1">
         <v>10788743404.6947</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6944,8 +7088,11 @@
       <c r="N38" s="1">
         <v>1116794469.2958601</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6988,8 +7135,11 @@
       <c r="N39" s="1">
         <v>1815030060.9040201</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7032,8 +7182,11 @@
       <c r="N40" s="1">
         <v>163357964.58525601</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7076,8 +7229,11 @@
       <c r="N41" s="1">
         <v>168368185.90020201</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7120,8 +7276,11 @@
       <c r="N42" s="1">
         <v>217819160.78203601</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7164,8 +7323,11 @@
       <c r="N43" s="1">
         <v>823167969.85702801</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7208,8 +7370,11 @@
       <c r="N44" s="1">
         <v>414953225.78045201</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7252,8 +7417,11 @@
       <c r="N45" s="1">
         <v>416643391.616018</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7296,8 +7464,11 @@
       <c r="N46" s="1">
         <v>828642483.35025501</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7340,8 +7511,11 @@
       <c r="N47" s="1">
         <v>446981585.45138597</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7384,8 +7558,11 @@
       <c r="N48" s="1">
         <v>123633124.796763</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7428,8 +7605,11 @@
       <c r="N49" s="1">
         <v>399859134.45132899</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7472,8 +7652,11 @@
       <c r="N50" s="1">
         <v>463262173.38329899</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7516,8 +7699,11 @@
       <c r="N51" s="1">
         <v>411033820.06215501</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7560,8 +7746,11 @@
       <c r="N52" s="1">
         <v>149173884.56963101</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7604,8 +7793,11 @@
       <c r="N53" s="1">
         <v>406024531.16427201</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7648,8 +7840,11 @@
       <c r="N54" s="1">
         <v>268822726.24362999</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7692,8 +7887,11 @@
       <c r="N55" s="1">
         <v>307253315.00660002</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7736,8 +7934,11 @@
       <c r="N56" s="1">
         <v>1561100232.8698599</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7780,8 +7981,11 @@
       <c r="N57" s="1">
         <v>265702481.90327901</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7824,8 +8028,11 @@
       <c r="N58" s="1">
         <v>222976286.61429</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7868,8 +8075,11 @@
       <c r="N59" s="1">
         <v>65185842.9309837</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7912,8 +8122,11 @@
       <c r="N60" s="1">
         <v>90739575.718687698</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7956,8 +8169,11 @@
       <c r="N61" s="1">
         <v>421202064.42629999</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8000,8 +8216,11 @@
       <c r="N62" s="1">
         <v>1994446840.4869001</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8044,8 +8263,11 @@
       <c r="N63" s="1">
         <v>199868216.61398801</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8088,8 +8310,11 @@
       <c r="N64" s="1">
         <v>629089988.59255803</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8132,8 +8357,11 @@
       <c r="N65" s="1">
         <v>554276640.78884602</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8176,8 +8404,11 @@
       <c r="N66" s="1">
         <v>576968921.51222301</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8220,8 +8451,11 @@
       <c r="N67" s="1">
         <v>1534156835.3150001</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8264,8 +8498,11 @@
       <c r="N68" s="1">
         <v>1054228319.17003</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -8308,8 +8545,11 @@
       <c r="N69" s="1">
         <v>600111741.80582201</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -8352,8 +8592,11 @@
       <c r="N70" s="1">
         <v>592408852.62063098</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -8396,8 +8639,11 @@
       <c r="N71" s="1">
         <v>5112549605.38486</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8440,8 +8686,11 @@
       <c r="N72" s="1">
         <v>118031399.41577899</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8484,8 +8733,11 @@
       <c r="N73" s="1">
         <v>61115905.046872899</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8528,8 +8780,11 @@
       <c r="N74" s="1">
         <v>89294185.639402404</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8572,8 +8827,11 @@
       <c r="N75" s="1">
         <v>206110854.93654701</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8616,8 +8874,11 @@
       <c r="N76" s="1">
         <v>239631895.25459099</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8660,8 +8921,11 @@
       <c r="N77" s="1">
         <v>512026284.34235901</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8704,8 +8968,11 @@
       <c r="N78" s="1">
         <v>59729454.958391801</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O78" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8748,8 +9015,11 @@
       <c r="N79" s="1">
         <v>125996964.481355</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O79" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8792,8 +9062,11 @@
       <c r="N80" s="1">
         <v>387993222.08596897</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8836,8 +9109,11 @@
       <c r="N81" s="1">
         <v>109017940.835159</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8880,8 +9156,11 @@
       <c r="N82" s="1">
         <v>635882931.435691</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8924,8 +9203,11 @@
       <c r="N83" s="1">
         <v>276954220.56692898</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8968,8 +9250,11 @@
       <c r="N84" s="1">
         <v>499500736.62302101</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -9012,8 +9297,11 @@
       <c r="N85" s="1">
         <v>311696599.60635102</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -9056,8 +9344,11 @@
       <c r="N86" s="1">
         <v>809102736.00219595</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -9100,8 +9391,11 @@
       <c r="N87" s="1">
         <v>121935777.921092</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9144,8 +9438,11 @@
       <c r="N88" s="1">
         <v>853266473.45873106</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9188,8 +9485,11 @@
       <c r="N89" s="1">
         <v>218250775.52219799</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9232,8 +9532,11 @@
       <c r="N90" s="1">
         <v>207560471.90876499</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9276,8 +9579,11 @@
       <c r="N91" s="1">
         <v>83563422.291412607</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9320,8 +9626,11 @@
       <c r="N92" s="1">
         <v>355755798.912256</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9364,8 +9673,11 @@
       <c r="N93" s="1">
         <v>87863437.323395297</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9408,8 +9720,11 @@
       <c r="N94" s="1">
         <v>161970560.64626601</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9452,8 +9767,11 @@
       <c r="N95" s="1">
         <v>38726800.476045199</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9496,8 +9814,11 @@
       <c r="N96" s="1">
         <v>671730707.66805804</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -9540,8 +9861,11 @@
       <c r="N97" s="1">
         <v>443485710.05580699</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -9584,8 +9908,11 @@
       <c r="N98" s="1">
         <v>381597669.19313103</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -9628,8 +9955,11 @@
       <c r="N99" s="1">
         <v>1190733506.53687</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -9672,8 +10002,11 @@
       <c r="N100" s="1">
         <v>597966604.22017598</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -9716,8 +10049,11 @@
       <c r="N101" s="1">
         <v>438036084.002469</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -9760,8 +10096,11 @@
       <c r="N102" s="1">
         <v>169753859.68758401</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O102" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -9804,8 +10143,11 @@
       <c r="N103" s="1">
         <v>214571869.22972199</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O103" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -9848,8 +10190,11 @@
       <c r="N104" s="1">
         <v>517290693.579835</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O104" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -9892,8 +10237,11 @@
       <c r="N105" s="1">
         <v>83369202.043856397</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O105" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -9936,8 +10284,11 @@
       <c r="N106" s="1">
         <v>312339058.84411299</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O106" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -9980,8 +10331,11 @@
       <c r="N107" s="1">
         <v>4195308415.4189401</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O107" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -10024,8 +10378,11 @@
       <c r="N108" s="1">
         <v>1115046270.84833</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O108" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -10068,8 +10425,11 @@
       <c r="N109" s="1">
         <v>993110010.89100599</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O109" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -10112,8 +10472,11 @@
       <c r="N110" s="1">
         <v>184029273.21586499</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O110" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -10156,8 +10519,11 @@
       <c r="N111" s="1">
         <v>393516553.58469802</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O111" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -10200,8 +10566,11 @@
       <c r="N112" s="1">
         <v>504735379.99131602</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O112" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -10244,8 +10613,11 @@
       <c r="N113" s="1">
         <v>151096109.407933</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O113" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -10288,8 +10660,11 @@
       <c r="N114" s="1">
         <v>1022526412.42197</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O114" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -10332,8 +10707,11 @@
       <c r="N115" s="1">
         <v>144234490.91100299</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O115" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -10376,8 +10754,11 @@
       <c r="N116" s="1">
         <v>251393455.854258</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O116" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -10420,8 +10801,11 @@
       <c r="N117" s="1">
         <v>2788665538.8413601</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O117" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -10464,8 +10848,11 @@
       <c r="N118" s="1">
         <v>413936065.52719301</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O118" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -10508,8 +10895,11 @@
       <c r="N119" s="1">
         <v>751551765.15631998</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O119" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -10552,8 +10942,11 @@
       <c r="N120" s="1">
         <v>167056828.85197899</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O120" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -10596,8 +10989,11 @@
       <c r="N121" s="1">
         <v>688212345.13207901</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O121" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -10640,8 +11036,11 @@
       <c r="N122" s="1">
         <v>227120643.078731</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O122" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -10684,8 +11083,11 @@
       <c r="N123" s="1">
         <v>353354614.64082801</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O123" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -10728,8 +11130,11 @@
       <c r="N124" s="1">
         <v>838494361.58729398</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O124" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -10772,8 +11177,11 @@
       <c r="N125" s="1">
         <v>97912261.966331705</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O125" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -10816,8 +11224,11 @@
       <c r="N126" s="1">
         <v>252503626.744463</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O126" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -10860,8 +11271,11 @@
       <c r="N127" s="1">
         <v>1947973178.0806401</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O127" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -10904,8 +11318,11 @@
       <c r="N128" s="1">
         <v>229783047.47056901</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O128" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -10948,8 +11365,11 @@
       <c r="N129" s="1">
         <v>151241371.30902001</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O129" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -10992,8 +11412,11 @@
       <c r="N130" s="1">
         <v>207937543.80898899</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O130" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -11036,8 +11459,11 @@
       <c r="N131" s="1">
         <v>211920368.09162501</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O131" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -11080,8 +11506,11 @@
       <c r="N132" s="1">
         <v>1829058997.07131</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O132" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -11124,8 +11553,11 @@
       <c r="N133" s="1">
         <v>154080067.71402401</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O133" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -11168,8 +11600,11 @@
       <c r="N134" s="1">
         <v>200334348.43681699</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O134" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -11212,8 +11647,11 @@
       <c r="N135" s="1">
         <v>258644050.868628</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O135" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -11256,8 +11694,11 @@
       <c r="N136" s="1">
         <v>425925712.230362</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O136" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -11300,8 +11741,11 @@
       <c r="N137" s="1">
         <v>1282164207.25565</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O137" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -11344,8 +11788,11 @@
       <c r="N138" s="1">
         <v>283108935.014139</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O138" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -11388,8 +11835,11 @@
       <c r="N139" s="1">
         <v>436302933.54345298</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O139" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -11432,8 +11882,11 @@
       <c r="N140" s="1">
         <v>244079244.660647</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O140" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -11476,8 +11929,11 @@
       <c r="N141" s="1">
         <v>103314384.75044399</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O141" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -11520,8 +11976,11 @@
       <c r="N142" s="1">
         <v>587386835.96924996</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O142" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -11564,8 +12023,11 @@
       <c r="N143" s="1">
         <v>252060183.89034599</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O143" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -11608,8 +12070,11 @@
       <c r="N144" s="1">
         <v>439349560.74391598</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O144" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -11652,8 +12117,11 @@
       <c r="N145" s="1">
         <v>730250459.42789102</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O145" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -11696,8 +12164,11 @@
       <c r="N146" s="1">
         <v>226246264.89712799</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O146" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -11740,8 +12211,11 @@
       <c r="N147" s="1">
         <v>602950654.72145605</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O147" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -11784,8 +12258,11 @@
       <c r="N148" s="1">
         <v>549042843.39396703</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O148" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -11828,8 +12305,11 @@
       <c r="N149" s="1">
         <v>812173414.67727995</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O149" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -11872,8 +12352,11 @@
       <c r="N150" s="1">
         <v>469222442.96635598</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O150" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -11916,8 +12399,11 @@
       <c r="N151" s="1">
         <v>287719677.00631702</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O151" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -11960,8 +12446,11 @@
       <c r="N152" s="1">
         <v>275135452.406012</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O152" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -12004,8 +12493,11 @@
       <c r="N153" s="1">
         <v>341874124.10414499</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O153" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -12048,8 +12540,11 @@
       <c r="N154" s="1">
         <v>305814418.89639997</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O154" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -12092,8 +12587,11 @@
       <c r="N155" s="1">
         <v>332788662.36795098</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O155" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -12136,8 +12634,11 @@
       <c r="N156" s="1">
         <v>306544622.58561599</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O156" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -12180,8 +12681,11 @@
       <c r="N157" s="1">
         <v>65611962.983278804</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O157" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -12224,8 +12728,11 @@
       <c r="N158" s="1">
         <v>250454903.27095401</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O158" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -12268,8 +12775,11 @@
       <c r="N159" s="1">
         <v>704517393.53676403</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O159" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -12312,8 +12822,11 @@
       <c r="N160" s="1">
         <v>164010977.32528901</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O160" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -12356,8 +12869,11 @@
       <c r="N161" s="1">
         <v>282545293.647461</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O161" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -12400,8 +12916,11 @@
       <c r="N162" s="1">
         <v>349141167.35677201</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O162" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -12444,8 +12963,11 @@
       <c r="N163" s="1">
         <v>156664597.45975801</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O163" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -12488,8 +13010,11 @@
       <c r="N164" s="1">
         <v>367575887.53850299</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O164" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -12532,8 +13057,11 @@
       <c r="N165" s="1">
         <v>174388037.88642401</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O165" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -12576,8 +13104,11 @@
       <c r="N166" s="1">
         <v>767582009.69787395</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O166" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -12620,8 +13151,11 @@
       <c r="N167" s="1">
         <v>333281209.89579701</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O167" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -12664,8 +13198,11 @@
       <c r="N168" s="1">
         <v>275621630.85593998</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O168" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -12708,8 +13245,11 @@
       <c r="N169" s="1">
         <v>200378870.92194101</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O169" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -12752,8 +13292,11 @@
       <c r="N170" s="1">
         <v>326641385.58420098</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O170" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -12796,8 +13339,11 @@
       <c r="N171" s="1">
         <v>384986210.51494199</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O171" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -12840,8 +13386,11 @@
       <c r="N172" s="1">
         <v>657427553.20037496</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O172" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -12884,8 +13433,11 @@
       <c r="N173" s="1">
         <v>2816072044.4991298</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O173" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -12928,8 +13480,11 @@
       <c r="N174" s="1">
         <v>183553599.02682799</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O174" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -12972,8 +13527,11 @@
       <c r="N175" s="1">
         <v>336061612.378995</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O175" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -13016,8 +13574,11 @@
       <c r="N176" s="1">
         <v>345701819.43638301</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O176" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -13060,8 +13621,11 @@
       <c r="N177" s="1">
         <v>244568696.448856</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O177" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -13104,8 +13668,11 @@
       <c r="N178" s="1">
         <v>252344351.53602099</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O178" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -13148,8 +13715,11 @@
       <c r="N179" s="1">
         <v>124723780.0781</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O179" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -13192,8 +13762,11 @@
       <c r="N180" s="1">
         <v>379521626.65296602</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O180" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -13236,8 +13809,11 @@
       <c r="N181" s="1">
         <v>343809026.72917598</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O181" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -13280,8 +13856,11 @@
       <c r="N182" s="1">
         <v>241683572.69095501</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O182" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -13324,8 +13903,11 @@
       <c r="N183" s="1">
         <v>445485473.390513</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O183" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -13368,8 +13950,11 @@
       <c r="N184" s="1">
         <v>113902617.456264</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O184" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -13412,8 +13997,11 @@
       <c r="N185" s="1">
         <v>295243808.15743798</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O185" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -13456,8 +14044,11 @@
       <c r="N186" s="1">
         <v>137913867.39402401</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O186" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -13500,8 +14091,11 @@
       <c r="N187" s="1">
         <v>269662069.852521</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O187" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -13544,8 +14138,11 @@
       <c r="N188" s="1">
         <v>305000640.864528</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O188" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -13588,8 +14185,11 @@
       <c r="N189" s="1">
         <v>291683384.97455698</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O189" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -13632,8 +14232,11 @@
       <c r="N190" s="1">
         <v>156090690.167573</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O190" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -13676,8 +14279,11 @@
       <c r="N191" s="1">
         <v>1625004621.7591901</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O191" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -13720,8 +14326,11 @@
       <c r="N192" s="1">
         <v>133956737.513482</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O192" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -13764,8 +14373,11 @@
       <c r="N193" s="1">
         <v>367995507.11263698</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O193" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -13808,8 +14420,11 @@
       <c r="N194" s="1">
         <v>67633818.640657902</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O194" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -13852,8 +14467,11 @@
       <c r="N195" s="1">
         <v>220487946.12343901</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O195" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -13896,8 +14514,11 @@
       <c r="N196" s="1">
         <v>433521361.03296</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O196" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -13940,8 +14561,11 @@
       <c r="N197" s="1">
         <v>293453926.35361803</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O197" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -13984,8 +14608,11 @@
       <c r="N198" s="1">
         <v>244910450.21966699</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O198" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -14028,8 +14655,11 @@
       <c r="N199" s="1">
         <v>175494424.02287599</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O199" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -14072,8 +14702,11 @@
       <c r="N200" s="1">
         <v>162459153.02864599</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O200" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -14116,8 +14749,11 @@
       <c r="N201" s="1">
         <v>523240810.79975599</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O201" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -14160,8 +14796,11 @@
       <c r="N202" s="1">
         <v>154163399.460446</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O202" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -14204,8 +14843,11 @@
       <c r="N203" s="1">
         <v>630848949.06587696</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O203" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -14248,8 +14890,11 @@
       <c r="N204" s="1">
         <v>150092770.66034299</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O204" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -14292,8 +14937,11 @@
       <c r="N205" s="1">
         <v>498012725.92564201</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O205" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -14336,8 +14984,11 @@
       <c r="N206" s="1">
         <v>768571163.757918</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O206" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -14380,8 +15031,11 @@
       <c r="N207" s="1">
         <v>434523552.97411698</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O207" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -14424,8 +15078,11 @@
       <c r="N208" s="1">
         <v>68119049.960990205</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O208" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -14468,8 +15125,11 @@
       <c r="N209" s="1">
         <v>39325375.816757701</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O209" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -14512,8 +15172,11 @@
       <c r="N210" s="1">
         <v>521997290.93621701</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O210" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -14556,8 +15219,11 @@
       <c r="N211" s="1">
         <v>169063524.12272999</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O211" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -14600,8 +15266,11 @@
       <c r="N212" s="1">
         <v>240059158.78931999</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O212" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -14644,8 +15313,11 @@
       <c r="N213" s="1">
         <v>1035371488.98151</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O213" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -14688,8 +15360,11 @@
       <c r="N214" s="1">
         <v>262838257.28489801</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O214" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -14732,8 +15407,11 @@
       <c r="N215" s="1">
         <v>1116348341.1224699</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O215" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -14776,8 +15454,11 @@
       <c r="N216" s="1">
         <v>97692771.230871096</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O216" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -14820,8 +15501,11 @@
       <c r="N217" s="1">
         <v>359041583.419882</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O217" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -14864,8 +15548,11 @@
       <c r="N218" s="1">
         <v>268348975.927872</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O218" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -14908,8 +15595,11 @@
       <c r="N219" s="1">
         <v>544518152.52593994</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O219" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -14952,8 +15642,11 @@
       <c r="N220" s="1">
         <v>148749402.32402101</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O220" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -14996,8 +15689,11 @@
       <c r="N221" s="1">
         <v>707106229.56357598</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O221" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -15040,8 +15736,11 @@
       <c r="N222" s="1">
         <v>215387996.24969101</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O222" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -15084,8 +15783,11 @@
       <c r="N223" s="1">
         <v>230454765.11234799</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O223" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -15128,8 +15830,11 @@
       <c r="N224" s="1">
         <v>1248018637.4733801</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O224" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -15172,8 +15877,11 @@
       <c r="N225" s="1">
         <v>174339747.55197299</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O225" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -15216,8 +15924,11 @@
       <c r="N226" s="1">
         <v>271599653.51404399</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O226" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -15260,8 +15971,11 @@
       <c r="N227" s="1">
         <v>173428008.40758201</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O227" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -15304,8 +16018,11 @@
       <c r="N228" s="1">
         <v>473906894.71813601</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O228" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -15348,8 +16065,11 @@
       <c r="N229" s="1">
         <v>288375112.82173902</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O229" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -15392,8 +16112,11 @@
       <c r="N230" s="1">
         <v>300638970.31788301</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O230" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -15436,8 +16159,11 @@
       <c r="N231" s="1">
         <v>395516241.78825599</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O231" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -15480,8 +16206,11 @@
       <c r="N232" s="1">
         <v>1200889028.3908801</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O232" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -15524,8 +16253,11 @@
       <c r="N233" s="1">
         <v>776638669.20881999</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O233" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -15568,8 +16300,11 @@
       <c r="N234" s="1">
         <v>342475573.19971901</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O234" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -15612,8 +16347,11 @@
       <c r="N235" s="1">
         <v>221707139.21987</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O235" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -15656,8 +16394,11 @@
       <c r="N236" s="1">
         <v>196695252.661441</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O236" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -15700,8 +16441,11 @@
       <c r="N237" s="1">
         <v>343205717.68730402</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O237" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -15744,8 +16488,11 @@
       <c r="N238" s="1">
         <v>457083907.20924598</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O238" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -15788,8 +16535,11 @@
       <c r="N239" s="1">
         <v>306472133.93578202</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O239" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -15832,8 +16582,11 @@
       <c r="N240" s="1">
         <v>985290448.89441597</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O240" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -15876,8 +16629,11 @@
       <c r="N241" s="1">
         <v>282129019.48180699</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O241" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -15920,8 +16676,11 @@
       <c r="N242" s="1">
         <v>230497258.46833199</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O242" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -15964,8 +16723,11 @@
       <c r="N243" s="1">
         <v>208366850.54877499</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O243" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -16008,8 +16770,11 @@
       <c r="N244" s="1">
         <v>180098155.691677</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O244" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -16052,8 +16817,11 @@
       <c r="N245" s="1">
         <v>173701537.872686</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O245" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -16096,8 +16864,11 @@
       <c r="N246" s="1">
         <v>51714834.839078501</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O246" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -16140,8 +16911,11 @@
       <c r="N247" s="1">
         <v>1824242575.3715501</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O247" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -16184,8 +16958,11 @@
       <c r="N248" s="1">
         <v>258089282.05737999</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O248" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -16228,8 +17005,11 @@
       <c r="N249" s="1">
         <v>448522972.11492902</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O249" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -16272,8 +17052,11 @@
       <c r="N250" s="1">
         <v>269918102.24226999</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O250" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -16316,8 +17099,11 @@
       <c r="N251" s="1">
         <v>1007872329.78359</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O251" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -16360,8 +17146,11 @@
       <c r="N252" s="1">
         <v>816674169.46835899</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O252" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -16404,8 +17193,11 @@
       <c r="N253" s="1">
         <v>293345276.233006</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O253" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -16448,8 +17240,11 @@
       <c r="N254" s="1">
         <v>159378349.285777</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O254" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -16492,8 +17287,11 @@
       <c r="N255" s="1">
         <v>199171623.28808901</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O255" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -16536,8 +17334,11 @@
       <c r="N256" s="1">
         <v>97380289.194711</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O256" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -16580,8 +17381,11 @@
       <c r="N257" s="1">
         <v>1187534736.64621</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O257" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -16624,8 +17428,11 @@
       <c r="N258" s="1">
         <v>346429399.99060601</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O258" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -16668,8 +17475,11 @@
       <c r="N259" s="1">
         <v>2141528286.41733</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O259" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -16712,8 +17522,11 @@
       <c r="N260" s="1">
         <v>193789709.109209</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O260" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -16756,8 +17569,11 @@
       <c r="N261" s="1">
         <v>332376811.22364599</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O261" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -16800,8 +17616,11 @@
       <c r="N262" s="1">
         <v>341313419.93769598</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O262" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -16844,8 +17663,11 @@
       <c r="N263" s="1">
         <v>226991238.66362199</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O263" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -16888,8 +17710,11 @@
       <c r="N264" s="1">
         <v>150634702.239737</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O264" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -16932,8 +17757,11 @@
       <c r="N265" s="1">
         <v>273856452.24851799</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O265" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -16976,8 +17804,11 @@
       <c r="N266" s="1">
         <v>340901376.65501601</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O266" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -17020,8 +17851,11 @@
       <c r="N267" s="1">
         <v>39214256.420935199</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O267" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -17064,8 +17898,11 @@
       <c r="N268" s="1">
         <v>498272811.67483801</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O268" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -17108,8 +17945,11 @@
       <c r="N269" s="1">
         <v>757779528.10928297</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O269" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -17152,8 +17992,11 @@
       <c r="N270" s="1">
         <v>296396205.90447199</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O270" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -17196,8 +18039,11 @@
       <c r="N271" s="1">
         <v>366478382.03306597</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O271" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -17240,8 +18086,11 @@
       <c r="N272" s="1">
         <v>253369960.53742301</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O272" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -17284,8 +18133,11 @@
       <c r="N273" s="1">
         <v>144268750.90959001</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O273" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -17328,8 +18180,11 @@
       <c r="N274" s="1">
         <v>888234232.70832396</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O274" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -17372,8 +18227,11 @@
       <c r="N275" s="1">
         <v>176442130.64753601</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O275" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -17416,8 +18274,11 @@
       <c r="N276" s="1">
         <v>336508855.36498398</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O276" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -17460,8 +18321,11 @@
       <c r="N277" s="1">
         <v>205835964.14041099</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O277" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -17504,8 +18368,11 @@
       <c r="N278" s="1">
         <v>95532920.923024595</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O278" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -17548,8 +18415,11 @@
       <c r="N279" s="1">
         <v>825745374.48370302</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O279" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -17592,8 +18462,11 @@
       <c r="N280" s="1">
         <v>289717082.16721302</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O280" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -17636,8 +18509,11 @@
       <c r="N281" s="1">
         <v>47741601.869021997</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O281" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -17680,8 +18556,11 @@
       <c r="N282" s="1">
         <v>642008383.32245505</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O282" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -17724,8 +18603,11 @@
       <c r="N283" s="1">
         <v>566681249.06656206</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O283" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -17768,8 +18650,11 @@
       <c r="N284" s="1">
         <v>226126938.60823399</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O284" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -17812,8 +18697,11 @@
       <c r="N285" s="1">
         <v>642865367.580392</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O285" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -17856,8 +18744,11 @@
       <c r="N286" s="1">
         <v>204165085.80489999</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O286" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -17900,8 +18791,11 @@
       <c r="N287" s="1">
         <v>197963613.778081</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O287" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -17944,8 +18838,11 @@
       <c r="N288" s="1">
         <v>371034396.07815403</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O288" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -17988,8 +18885,11 @@
       <c r="N289" s="1">
         <v>86205021.662620604</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O289" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -18032,8 +18932,11 @@
       <c r="N290" s="1">
         <v>370272995.94793397</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O290" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -18076,8 +18979,11 @@
       <c r="N291" s="1">
         <v>421077998.99756402</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O291" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -18120,8 +19026,11 @@
       <c r="N292" s="1">
         <v>228108803.300695</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O292" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -18164,8 +19073,11 @@
       <c r="N293" s="1">
         <v>1184802481.1704099</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O293" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -18208,8 +19120,11 @@
       <c r="N294" s="1">
         <v>1307409277.19572</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O294" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -18252,8 +19167,11 @@
       <c r="N295" s="1">
         <v>147890021.59031501</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O295" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -18296,8 +19214,11 @@
       <c r="N296" s="1">
         <v>947600157.23388302</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O296" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -18340,8 +19261,11 @@
       <c r="N297" s="1">
         <v>516109043.49399</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O297" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -18384,8 +19308,11 @@
       <c r="N298" s="1">
         <v>569036763.15390897</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O298" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -18428,8 +19355,11 @@
       <c r="N299" s="1">
         <v>744676913.58530498</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O299" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -18472,8 +19402,11 @@
       <c r="N300" s="1">
         <v>1131152608.1069901</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O300" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -18516,8 +19449,11 @@
       <c r="N301" s="1">
         <v>7956730973.2098398</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O301" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -18560,8 +19496,11 @@
       <c r="N302" s="1">
         <v>244561130.80180699</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O302" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -18604,8 +19543,11 @@
       <c r="N303" s="1">
         <v>172432916.47183901</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O303" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -18648,8 +19590,11 @@
       <c r="N304" s="1">
         <v>502621794.46554601</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O304" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -18692,8 +19637,11 @@
       <c r="N305" s="1">
         <v>2071296474.1673601</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O305" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -18736,8 +19684,11 @@
       <c r="N306" s="1">
         <v>8482259076.6637096</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O306" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -18780,8 +19731,11 @@
       <c r="N307" s="1">
         <v>492006331.03808498</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O307" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -18824,8 +19778,11 @@
       <c r="N308" s="1">
         <v>444883882.96697301</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O308" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -18868,8 +19825,11 @@
       <c r="N309" s="1">
         <v>494906753.52350003</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O309" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -18912,8 +19872,11 @@
       <c r="N310" s="1">
         <v>300583170.83749801</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O310" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -18956,8 +19919,11 @@
       <c r="N311" s="1">
         <v>327116965.38162303</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O311" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -19000,8 +19966,11 @@
       <c r="N312" s="1">
         <v>730609431.82698798</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O312" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -19044,8 +20013,11 @@
       <c r="N313" s="1">
         <v>346493654.038311</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O313" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -19088,8 +20060,11 @@
       <c r="N314" s="1">
         <v>72933670.485352099</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O314" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -19132,8 +20107,11 @@
       <c r="N315" s="1">
         <v>283938234.20477402</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O315" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -19176,8 +20154,11 @@
       <c r="N316" s="1">
         <v>220973900.42140999</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O316" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -19220,8 +20201,11 @@
       <c r="N317" s="1">
         <v>151954785.99019799</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O317" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -19264,8 +20248,11 @@
       <c r="N318" s="1">
         <v>191438896.613383</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O318" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -19308,8 +20295,11 @@
       <c r="N319" s="1">
         <v>188809772.190366</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O319" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -19352,8 +20342,11 @@
       <c r="N320" s="1">
         <v>3324520614.5185699</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O320" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -19396,8 +20389,11 @@
       <c r="N321" s="1">
         <v>506998741.73429501</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O321" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -19440,8 +20436,11 @@
       <c r="N322" s="1">
         <v>742458672.72188497</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O322" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -19484,8 +20483,11 @@
       <c r="N323" s="1">
         <v>962257804.98011899</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O323" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -19528,8 +20530,11 @@
       <c r="N324" s="1">
         <v>143965897.25427401</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O324" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -19572,8 +20577,11 @@
       <c r="N325" s="1">
         <v>329480704.20811301</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O325" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -19616,8 +20624,11 @@
       <c r="N326" s="1">
         <v>140235440.45392299</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O326" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -19660,8 +20671,11 @@
       <c r="N327" s="1">
         <v>397981647.92628002</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O327" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -19704,8 +20718,11 @@
       <c r="N328" s="1">
         <v>310759849.95545799</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O328" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -19748,8 +20765,11 @@
       <c r="N329" s="1">
         <v>586306943.94219899</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O329" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -19792,8 +20812,11 @@
       <c r="N330" s="1">
         <v>271524031.90000403</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O330" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -19836,8 +20859,11 @@
       <c r="N331" s="1">
         <v>156242582.19586399</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O331" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -19880,8 +20906,11 @@
       <c r="N332" s="1">
         <v>81503099.046877593</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O332" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -19924,8 +20953,11 @@
       <c r="N333" s="1">
         <v>29152630398.5644</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O333" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -19968,8 +21000,11 @@
       <c r="N334" s="1">
         <v>161091394.92076099</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O334" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -20012,8 +21047,11 @@
       <c r="N335" s="1">
         <v>542755436.78909194</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O335" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -20056,8 +21094,11 @@
       <c r="N336" s="1">
         <v>514289182.98829901</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O336" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -20100,8 +21141,11 @@
       <c r="N337" s="1">
         <v>270842787.56481099</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O337" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -20144,8 +21188,11 @@
       <c r="N338" s="1">
         <v>420218055.74519598</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O338" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -20188,8 +21235,11 @@
       <c r="N339" s="1">
         <v>298462026.14697301</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O339" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -20232,8 +21282,11 @@
       <c r="N340" s="1">
         <v>1752054426.7746601</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O340" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -20276,8 +21329,11 @@
       <c r="N341" s="1">
         <v>425575681.69159299</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O341" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -20320,8 +21376,11 @@
       <c r="N342" s="1">
         <v>219533288.39143899</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O342" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -20364,8 +21423,11 @@
       <c r="N343" s="1">
         <v>247833952.43233499</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O343" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -20408,8 +21470,11 @@
       <c r="N344" s="1">
         <v>145638028.66207501</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O344" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -20452,8 +21517,11 @@
       <c r="N345" s="1">
         <v>7282076477.0959597</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O345" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -20496,8 +21564,11 @@
       <c r="N346" s="1">
         <v>984878588.91099894</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O346" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -20540,8 +21611,11 @@
       <c r="N347" s="1">
         <v>407905145.37634498</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O347" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -20584,8 +21658,11 @@
       <c r="N348" s="1">
         <v>263671318.799337</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O348" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -20628,8 +21705,11 @@
       <c r="N349" s="1">
         <v>732291416.52105296</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O349" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -20672,8 +21752,11 @@
       <c r="N350" s="1">
         <v>113181955.51531801</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O350" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -20716,8 +21799,11 @@
       <c r="N351" s="1">
         <v>129585936.30222</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O351" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -20760,8 +21846,11 @@
       <c r="N352" s="1">
         <v>1008909646.71197</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O352" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -20804,8 +21893,11 @@
       <c r="N353" s="1">
         <v>997631865.37536502</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O353" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -20848,8 +21940,11 @@
       <c r="N354" s="1">
         <v>315674645.90851003</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O354" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -20892,8 +21987,11 @@
       <c r="N355" s="1">
         <v>774633604.55018401</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O355" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -20936,8 +22034,11 @@
       <c r="N356" s="1">
         <v>348412074.96929902</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O356" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -20980,8 +22081,11 @@
       <c r="N357" s="1">
         <v>318746567.312989</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O357" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -21024,8 +22128,11 @@
       <c r="N358" s="1">
         <v>358156572.00505799</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O358" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -21068,8 +22175,11 @@
       <c r="N359" s="1">
         <v>80439375.687389597</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O359" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -21112,8 +22222,11 @@
       <c r="N360" s="1">
         <v>199960910.63141799</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O360" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -21156,8 +22269,11 @@
       <c r="N361" s="1">
         <v>162920339.578033</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O361" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -21200,8 +22316,11 @@
       <c r="N362" s="1">
         <v>97300139.8138244</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O362" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -21244,8 +22363,11 @@
       <c r="N363" s="1">
         <v>1156753394.25143</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O363" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -21288,8 +22410,11 @@
       <c r="N364" s="1">
         <v>688540170.21549499</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O364" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -21332,8 +22457,11 @@
       <c r="N365" s="1">
         <v>428946996.30007601</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O365" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -21376,8 +22504,11 @@
       <c r="N366" s="1">
         <v>169585287.72126299</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O366" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -21420,8 +22551,11 @@
       <c r="N367" s="1">
         <v>154495967.693129</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O367" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -21464,8 +22598,11 @@
       <c r="N368" s="1">
         <v>209567681.618774</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O368" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -21508,8 +22645,11 @@
       <c r="N369" s="1">
         <v>217102288.87505999</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O369" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -21552,8 +22692,11 @@
       <c r="N370" s="1">
         <v>214569404.512402</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O370" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -21596,8 +22739,11 @@
       <c r="N371" s="1">
         <v>143042814.19165599</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O371" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -21640,8 +22786,11 @@
       <c r="N372" s="1">
         <v>1194479197.0379601</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O372" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -21684,8 +22833,11 @@
       <c r="N373" s="1">
         <v>343098566.59192502</v>
       </c>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O373" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -21728,8 +22880,11 @@
       <c r="N374" s="1">
         <v>154730935.831296</v>
       </c>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O374" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -21772,8 +22927,11 @@
       <c r="N375" s="1">
         <v>169142071.41479999</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O375" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -21816,8 +22974,11 @@
       <c r="N376" s="1">
         <v>21146888.140755702</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O376" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -21860,8 +23021,11 @@
       <c r="N377" s="1">
         <v>274225062.83269298</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O377" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -21904,8 +23068,11 @@
       <c r="N378" s="1">
         <v>889164059.33527005</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O378" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -21948,8 +23115,11 @@
       <c r="N379" s="1">
         <v>604625395.21338201</v>
       </c>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O379" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -21992,8 +23162,11 @@
       <c r="N380" s="1">
         <v>197197556.795405</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O380" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -22036,8 +23209,11 @@
       <c r="N381" s="1">
         <v>241439411.43540001</v>
       </c>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O381" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -22080,8 +23256,11 @@
       <c r="N382" s="1">
         <v>215931235.32403001</v>
       </c>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O382" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -22124,8 +23303,11 @@
       <c r="N383" s="1">
         <v>57947748.744276099</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O383" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -22168,8 +23350,11 @@
       <c r="N384" s="1">
         <v>1773399222.80674</v>
       </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O384" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -22212,8 +23397,11 @@
       <c r="N385" s="1">
         <v>546800226.02260399</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O385" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -22256,8 +23444,11 @@
       <c r="N386" s="1">
         <v>443707489.02566499</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O386" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -22300,8 +23491,11 @@
       <c r="N387" s="1">
         <v>234495215.47888401</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O387" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -22344,8 +23538,11 @@
       <c r="N388" s="1">
         <v>83022841.336763695</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O388" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -22388,8 +23585,11 @@
       <c r="N389" s="1">
         <v>291017875.44158697</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O389" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -22432,8 +23632,11 @@
       <c r="N390" s="1">
         <v>375831764.52102298</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O390" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -22476,8 +23679,11 @@
       <c r="N391" s="1">
         <v>474416808.74539202</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O391" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -22520,8 +23726,11 @@
       <c r="N392" s="1">
         <v>497089775.06605101</v>
       </c>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O392" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -22564,8 +23773,11 @@
       <c r="N393" s="1">
         <v>602679161.21641898</v>
       </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O393" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -22608,8 +23820,11 @@
       <c r="N394" s="1">
         <v>573074609.64821506</v>
       </c>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O394" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -22652,8 +23867,11 @@
       <c r="N395" s="1">
         <v>1784610644.59268</v>
       </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O395" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -22696,8 +23914,11 @@
       <c r="N396" s="1">
         <v>175509297.88862699</v>
       </c>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O396" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -22740,8 +23961,11 @@
       <c r="N397" s="1">
         <v>517929623.66554099</v>
       </c>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O397" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -22784,8 +24008,11 @@
       <c r="N398" s="1">
         <v>322424630.10448402</v>
       </c>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O398" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -22828,8 +24055,11 @@
       <c r="N399" s="1">
         <v>284230101.80367702</v>
       </c>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O399" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -22872,8 +24102,11 @@
       <c r="N400" s="1">
         <v>1319453139.84973</v>
       </c>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O400" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -22916,8 +24149,11 @@
       <c r="N401" s="1">
         <v>568338317.06417894</v>
       </c>
-    </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O401" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -22960,8 +24196,11 @@
       <c r="N402" s="1">
         <v>860887730.00689995</v>
       </c>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O402" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -23004,8 +24243,11 @@
       <c r="N403" s="1">
         <v>237834268.81665099</v>
       </c>
-    </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O403" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -23048,8 +24290,11 @@
       <c r="N404" s="1">
         <v>165678546.928574</v>
       </c>
-    </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O404" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -23092,8 +24337,11 @@
       <c r="N405" s="1">
         <v>111666372.279061</v>
       </c>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O405" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -23136,8 +24384,11 @@
       <c r="N406" s="1">
         <v>841293920.76285899</v>
       </c>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O406" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -23180,8 +24431,11 @@
       <c r="N407" s="1">
         <v>747270385.48012996</v>
       </c>
-    </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O407" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -23224,8 +24478,11 @@
       <c r="N408" s="1">
         <v>136745153.909206</v>
       </c>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O408" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -23268,8 +24525,11 @@
       <c r="N409" s="1">
         <v>390919098.05929202</v>
       </c>
-    </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O409" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -23312,8 +24572,11 @@
       <c r="N410" s="1">
         <v>1121036731.82833</v>
       </c>
-    </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O410" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -23356,8 +24619,11 @@
       <c r="N411" s="1">
         <v>97030199.914851204</v>
       </c>
-    </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O411" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -23400,8 +24666,11 @@
       <c r="N412" s="1">
         <v>841949387.04402304</v>
       </c>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O412" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -23444,8 +24713,11 @@
       <c r="N413" s="1">
         <v>182679640.46636701</v>
       </c>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O413" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -23488,8 +24760,11 @@
       <c r="N414" s="1">
         <v>179736453.59659201</v>
       </c>
-    </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O414" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -23532,8 +24807,11 @@
       <c r="N415" s="1">
         <v>118311382.268971</v>
       </c>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O415" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -23576,8 +24854,11 @@
       <c r="N416" s="1">
         <v>5403323383.1579704</v>
       </c>
-    </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O416" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -23620,8 +24901,11 @@
       <c r="N417" s="1">
         <v>457834281.63795298</v>
       </c>
-    </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O417" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -23664,8 +24948,11 @@
       <c r="N418" s="1">
         <v>115191510.320822</v>
       </c>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O418" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -23708,8 +24995,11 @@
       <c r="N419" s="1">
         <v>281308567.81009197</v>
       </c>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O419" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -23752,8 +25042,11 @@
       <c r="N420" s="1">
         <v>2407384339.6690102</v>
       </c>
-    </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O420" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -23796,8 +25089,11 @@
       <c r="N421" s="1">
         <v>208794440.707091</v>
       </c>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O421" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -23840,8 +25136,11 @@
       <c r="N422" s="1">
         <v>599975638.253739</v>
       </c>
-    </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O422" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -23884,8 +25183,11 @@
       <c r="N423" s="1">
         <v>224186785.42266199</v>
       </c>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O423" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -23928,8 +25230,11 @@
       <c r="N424" s="1">
         <v>150460297.582928</v>
       </c>
-    </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O424" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -23972,8 +25277,11 @@
       <c r="N425" s="1">
         <v>333073110.21142298</v>
       </c>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O425" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -24016,8 +25324,11 @@
       <c r="N426" s="1">
         <v>300375980.96032703</v>
       </c>
-    </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O426" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -24060,8 +25371,11 @@
       <c r="N427" s="1">
         <v>290070439.45277601</v>
       </c>
-    </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O427" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -24104,8 +25418,11 @@
       <c r="N428" s="1">
         <v>694479354.29501998</v>
       </c>
-    </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O428" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -24148,8 +25465,11 @@
       <c r="N429" s="1">
         <v>265899768.60371101</v>
       </c>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O429" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -24192,8 +25512,11 @@
       <c r="N430" s="1">
         <v>246270254.47034499</v>
       </c>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O430" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -24236,8 +25559,11 @@
       <c r="N431" s="1">
         <v>129483479.78293</v>
       </c>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O431" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -24280,8 +25606,11 @@
       <c r="N432" s="1">
         <v>55240328.018527299</v>
       </c>
-    </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O432" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -24324,8 +25653,11 @@
       <c r="N433" s="1">
         <v>278105140.618653</v>
       </c>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O433" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -24368,8 +25700,11 @@
       <c r="N434" s="1">
         <v>27610005889.156399</v>
       </c>
-    </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O434" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -24412,8 +25747,11 @@
       <c r="N435" s="1">
         <v>1137316856.0325401</v>
       </c>
-    </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O435" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -24456,8 +25794,11 @@
       <c r="N436" s="1">
         <v>177387215.41087899</v>
       </c>
-    </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O436" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -24500,8 +25841,11 @@
       <c r="N437" s="1">
         <v>910980167.371158</v>
       </c>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O437" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -24544,8 +25888,11 @@
       <c r="N438" s="1">
         <v>956768625.45759499</v>
       </c>
-    </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O438" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -24588,8 +25935,11 @@
       <c r="N439" s="1">
         <v>54732906.567846902</v>
       </c>
-    </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O439" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -24632,8 +25982,11 @@
       <c r="N440" s="1">
         <v>581240472.67104101</v>
       </c>
-    </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O440" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -24676,8 +26029,11 @@
       <c r="N441" s="1">
         <v>876502595.334921</v>
       </c>
-    </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O441" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -24720,8 +26076,11 @@
       <c r="N442" s="1">
         <v>243531967.476284</v>
       </c>
-    </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O442" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -24764,8 +26123,11 @@
       <c r="N443" s="1">
         <v>429514961.22790998</v>
       </c>
-    </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O443" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -24808,8 +26170,11 @@
       <c r="N444" s="1">
         <v>261623045.05328101</v>
       </c>
-    </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O444" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -24852,8 +26217,11 @@
       <c r="N445" s="1">
         <v>584135808.61026299</v>
       </c>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O445" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -24896,8 +26264,11 @@
       <c r="N446" s="1">
         <v>467655533.02012497</v>
       </c>
-    </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O446" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -24940,8 +26311,11 @@
       <c r="N447" s="1">
         <v>342094210.79216701</v>
       </c>
-    </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O447" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -24984,8 +26358,11 @@
       <c r="N448" s="1">
         <v>151713683.429741</v>
       </c>
-    </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O448" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -25028,8 +26405,11 @@
       <c r="N449" s="1">
         <v>298938536.31179303</v>
       </c>
-    </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O449" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -25072,8 +26452,11 @@
       <c r="N450" s="1">
         <v>93394538.530925199</v>
       </c>
-    </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O450" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -25116,8 +26499,11 @@
       <c r="N451" s="1">
         <v>320466962.14114499</v>
       </c>
-    </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O451" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -25160,8 +26546,11 @@
       <c r="N452" s="1">
         <v>148343451.780397</v>
       </c>
-    </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O452" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -25204,8 +26593,11 @@
       <c r="N453" s="1">
         <v>393987641.95182699</v>
       </c>
-    </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O453" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -25248,8 +26640,11 @@
       <c r="N454" s="1">
         <v>1479819598.27529</v>
       </c>
-    </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O454" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -25292,8 +26687,11 @@
       <c r="N455" s="1">
         <v>351375273.881046</v>
       </c>
-    </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O455" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -25336,8 +26734,11 @@
       <c r="N456" s="1">
         <v>643011000.98961198</v>
       </c>
-    </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O456" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -25380,8 +26781,11 @@
       <c r="N457" s="1">
         <v>544995234.53042805</v>
       </c>
-    </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O457" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -25424,8 +26828,11 @@
       <c r="N458" s="1">
         <v>3263141430.9116302</v>
       </c>
-    </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O458" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -25468,8 +26875,11 @@
       <c r="N459" s="1">
         <v>394804470.72786701</v>
       </c>
-    </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O459" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -25512,8 +26922,11 @@
       <c r="N460" s="1">
         <v>570070097.37573397</v>
       </c>
-    </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O460" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -25556,8 +26969,11 @@
       <c r="N461" s="1">
         <v>133364104.627966</v>
       </c>
-    </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O461" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -25600,8 +27016,11 @@
       <c r="N462" s="1">
         <v>371490011.85413402</v>
       </c>
-    </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O462" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -25644,8 +27063,11 @@
       <c r="N463" s="1">
         <v>264404197.45527601</v>
       </c>
-    </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O463" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -25688,8 +27110,11 @@
       <c r="N464" s="1">
         <v>173210628.838429</v>
       </c>
-    </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O464" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -25732,8 +27157,11 @@
       <c r="N465" s="1">
         <v>130228010.97218899</v>
       </c>
-    </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O465" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -25776,8 +27204,11 @@
       <c r="N466" s="1">
         <v>168300258.517629</v>
       </c>
-    </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O466" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -25820,8 +27251,11 @@
       <c r="N467" s="1">
         <v>214302164.443984</v>
       </c>
-    </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O467" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -25864,8 +27298,11 @@
       <c r="N468" s="1">
         <v>784812502.85205603</v>
       </c>
-    </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O468" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -25908,8 +27345,11 @@
       <c r="N469" s="1">
         <v>627552355.12973106</v>
       </c>
-    </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O469" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -25952,8 +27392,11 @@
       <c r="N470" s="1">
         <v>797728724.89382899</v>
       </c>
-    </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O470" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -25996,8 +27439,11 @@
       <c r="N471" s="1">
         <v>177143730.76030299</v>
       </c>
-    </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O471" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -26040,8 +27486,11 @@
       <c r="N472" s="1">
         <v>1929801042.0091701</v>
       </c>
-    </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O472" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -26084,8 +27533,11 @@
       <c r="N473" s="1">
         <v>908913788.96249199</v>
       </c>
-    </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O473" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -26128,8 +27580,11 @@
       <c r="N474" s="1">
         <v>232433155.69673601</v>
       </c>
-    </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O474" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -26172,8 +27627,11 @@
       <c r="N475" s="1">
         <v>107554592.74013799</v>
       </c>
-    </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O475" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -26216,8 +27674,11 @@
       <c r="N476" s="1">
         <v>251110838.501113</v>
       </c>
-    </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O476" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -26260,8 +27721,11 @@
       <c r="N477" s="1">
         <v>1502253898.5940399</v>
       </c>
-    </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O477" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -26304,8 +27768,11 @@
       <c r="N478" s="1">
         <v>377002566.89087898</v>
       </c>
-    </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O478" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -26348,8 +27815,11 @@
       <c r="N479" s="1">
         <v>47944678.363503098</v>
       </c>
-    </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O479" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -26392,8 +27862,11 @@
       <c r="N480" s="1">
         <v>331805694.63269103</v>
       </c>
-    </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O480" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -26436,8 +27909,11 @@
       <c r="N481" s="1">
         <v>173359071.52774599</v>
       </c>
-    </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O481" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -26480,8 +27956,11 @@
       <c r="N482" s="1">
         <v>194769125.59325299</v>
       </c>
-    </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O482" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -26524,8 +28003,11 @@
       <c r="N483" s="1">
         <v>1118370953.68747</v>
       </c>
-    </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O483" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -26568,8 +28050,11 @@
       <c r="N484" s="1">
         <v>373346785.77674901</v>
       </c>
-    </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O484" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -26612,8 +28097,11 @@
       <c r="N485" s="1">
         <v>172880368.794424</v>
       </c>
-    </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O485" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -26656,8 +28144,11 @@
       <c r="N486" s="1">
         <v>346432690.51381302</v>
       </c>
-    </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O486" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -26700,8 +28191,11 @@
       <c r="N487" s="1">
         <v>184014670.15812099</v>
       </c>
-    </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O487" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -26744,8 +28238,11 @@
       <c r="N488" s="1">
         <v>102420269.577042</v>
       </c>
-    </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O488" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -26788,8 +28285,11 @@
       <c r="N489" s="1">
         <v>49742907.447830997</v>
       </c>
-    </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O489" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -26832,8 +28332,11 @@
       <c r="N490" s="1">
         <v>364722938.07907701</v>
       </c>
-    </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O490" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -26876,8 +28379,11 @@
       <c r="N491" s="1">
         <v>290690982.533373</v>
       </c>
-    </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O491" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -26920,8 +28426,11 @@
       <c r="N492" s="1">
         <v>183379455.29987699</v>
       </c>
-    </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O492" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -26964,8 +28473,11 @@
       <c r="N493" s="1">
         <v>598144077.96201098</v>
       </c>
-    </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O493" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -27008,8 +28520,11 @@
       <c r="N494" s="1">
         <v>38233720.497532703</v>
       </c>
-    </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O494" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -27052,8 +28567,11 @@
       <c r="N495" s="1">
         <v>226434241.12783</v>
       </c>
-    </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O495" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -27096,8 +28614,11 @@
       <c r="N496" s="1">
         <v>160012612.57591099</v>
       </c>
-    </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O496" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -27140,8 +28661,11 @@
       <c r="N497" s="1">
         <v>260971671.488478</v>
       </c>
-    </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O497" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -27184,8 +28708,11 @@
       <c r="N498" s="1">
         <v>173238670.28826499</v>
       </c>
-    </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O498" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -27228,8 +28755,11 @@
       <c r="N499" s="1">
         <v>417280196.80864</v>
       </c>
-    </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O499" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -27272,8 +28802,11 @@
       <c r="N500" s="1">
         <v>207079914.47437701</v>
       </c>
-    </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O500" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -27315,6 +28848,9 @@
       </c>
       <c r="N501" s="1">
         <v>414952601.32539099</v>
+      </c>
+      <c r="O501" s="1" t="s">
+        <v>1521</v>
       </c>
     </row>
   </sheetData>
